--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288208.903694809</v>
+        <v>1290031.574061995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797657</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6101529.620562938</v>
+        <v>6156446.276260277</v>
       </c>
     </row>
     <row r="11">
@@ -665,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>21.84039882228386</v>
       </c>
       <c r="G2" t="n">
-        <v>169.0708280266249</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.09345814857096</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>143.7773912969451</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>65.17935300803268</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1178,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>199.4261177940757</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.94867197778222</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>135.4320983106454</v>
       </c>
       <c r="D12" t="n">
-        <v>47.29627918133474</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1886,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>90.36004757168708</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>100.8824071085284</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>123.4225424657643</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>159.2222148998135</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>125.0694439441592</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>89.93607067950306</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>37.15414074677624</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2801,56 +2803,56 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>89.18261861851448</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>141.629655557813</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>164.1746559739602</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>115.4162387035838</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>176.1919908257736</v>
       </c>
     </row>
     <row r="37">
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3515,58 +3517,58 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>31.24017141215197</v>
+        <v>131.9191607488403</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>169.0708280266249</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>41.30402073131225</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>45.02278574591163</v>
       </c>
     </row>
     <row r="43">
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>67.46006253383348</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>180.2735260549796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>614.4775954922324</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>412.2910008509983</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>393.0046794888054</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>185.4108972279162</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>185.4108972279162</v>
+        <v>167.1943137916113</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.1984156022267</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>189.1984156022267</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>189.1984156022267</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>189.1984156022267</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>43.96872742349432</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>396.792197863116</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>396.792197863116</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>189.1984156022267</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>189.1984156022267</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.5625096843836</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>251.5625096843836</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>251.5625096843836</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>251.5625096843836</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>251.5625096843836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>251.5625096843836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.5625096843836</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>273.3494596531312</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>134.6186342357468</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>21.24949864332608</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>211.6833797714288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>415.1460457653264</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>618.608711759224</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>137.7041268545529</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7041268545529</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>137.7041268545529</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
         <v>487.4018176583718</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>396.0109115480204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>396.0109115480204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>396.0109115480204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>396.0109115480204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.2506127830665</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>700.6811714053606</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5837,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>837.7243838498694</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>837.7243838498694</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>837.7243838498694</v>
       </c>
       <c r="V24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="W24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>602.5722756181267</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>926.5277204128824</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>683.0789437687823</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="28">
@@ -6403,7 +6405,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>199.6642254030709</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>546.4100233749857</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>318.1864051113748</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>318.1864051113748</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>318.1864051113748</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>110.334904905842</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.334904905842</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6649,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>697.0546402312389</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>697.0546402312389</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>697.0546402312389</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>697.0546402312389</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>697.0546402312389</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>489.203140025706</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>489.203140025706</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>562.4161926976942</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>387.9631634165672</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>387.9631634165672</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>562.4161926976942</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>562.4161926976942</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>562.4161926976942</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>603.1082791007675</v>
+        <v>830.8054779865552</v>
       </c>
       <c r="W39" t="n">
-        <v>603.1082791007675</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>587.3567013424552</v>
       </c>
     </row>
     <row r="40">
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.697218590109</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C42" t="n">
-        <v>204.697218590109</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D42" t="n">
-        <v>204.697218590109</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E42" t="n">
-        <v>204.697218590109</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>58.162660616994</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>412.2910008509983</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>412.2910008509983</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>204.697218590109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.697218590109</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>255.5008658160403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>255.5008658160403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90708355515102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90708355515102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>47.90708355515102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>463.0946480769296</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>463.0946480769296</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>463.0946480769296</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.5008658160403</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>895.9156782037337</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,19 +8221,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>335.768472927719</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,13 +9011,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9246,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,13 +9959,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>37.27640067767032</v>
       </c>
       <c r="D12" t="n">
-        <v>100.148786383304</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>135.5813345092877</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>108.137662477717</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.02252309887449</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>73.57837224961182</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>385.6922903709871</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24254,13 +24256,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>46.61372715967863</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>142.8645164699222</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>134.5290303570616</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>23.05282561798198</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>58.5350731370086</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>7.508515129877622</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>246.9027416247241</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>42.2288417518171</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.49070495153072</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.2668633158006</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>201.5604157372733</v>
+        <v>100.881426400585</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>41.40506154378102</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>96.03949643189839</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>160.6599100313927</v>
       </c>
     </row>
     <row r="43">
@@ -25804,10 +25806,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>191.2741794849307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>158.4813195471413</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.4091697223248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934901.5318858832</v>
+        <v>927558.6003656362</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934901.5318858831</v>
+        <v>936616.2611372658</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>934901.5318858831</v>
+        <v>936616.2611372658</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378822.3970720209</v>
+        <v>399023.7938554852</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378822.3970720209</v>
+        <v>399023.7938554852</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399023.793855485</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>399023.7938554852</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>399023.7938554852</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378822.3970720209</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378822.397072021</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>205084.934385411</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26347,13 +26349,13 @@
         <v>216008.874290732</v>
       </c>
       <c r="N2" t="n">
+        <v>216008.874290732</v>
+      </c>
+      <c r="O2" t="n">
         <v>216008.8742907321</v>
       </c>
-      <c r="O2" t="n">
-        <v>205084.9343854111</v>
-      </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320447.2707415523</v>
+        <v>354071.2011411577</v>
       </c>
       <c r="C4" t="n">
-        <v>320447.2707415523</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>320447.2707415523</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
         <v>33649.84678425771</v>
@@ -26454,10 +26456,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>31909.3965941043</v>
+        <v>33649.84678425771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98233.0381466948</v>
+        <v>124791.5082474202</v>
       </c>
       <c r="C6" t="n">
-        <v>167106.7947283845</v>
+        <v>112224.1850426372</v>
       </c>
       <c r="D6" t="n">
-        <v>167106.7947283845</v>
+        <v>172800.5072293053</v>
       </c>
       <c r="E6" t="n">
-        <v>160680.0528494593</v>
+        <v>167705.3587427127</v>
       </c>
       <c r="F6" t="n">
-        <v>160680.0528494594</v>
+        <v>167705.3587427127</v>
       </c>
       <c r="G6" t="n">
-        <v>157976.3157685456</v>
+        <v>167705.3587427128</v>
       </c>
       <c r="H6" t="n">
         <v>167705.3587427127</v>
@@ -26543,10 +26545,10 @@
         <v>167705.3587427127</v>
       </c>
       <c r="J6" t="n">
-        <v>113932.8478525032</v>
+        <v>153704.1266024334</v>
       </c>
       <c r="K6" t="n">
-        <v>167705.3587427127</v>
+        <v>119448.4058090801</v>
       </c>
       <c r="L6" t="n">
         <v>167705.3587427127</v>
@@ -26555,13 +26557,13 @@
         <v>167705.3587427126</v>
       </c>
       <c r="N6" t="n">
+        <v>167705.3587427126</v>
+      </c>
+      <c r="O6" t="n">
         <v>167705.3587427127</v>
       </c>
-      <c r="O6" t="n">
-        <v>160680.0528494593</v>
-      </c>
       <c r="P6" t="n">
-        <v>160680.0528494593</v>
+        <v>167705.3587427127</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>385.0356469194276</v>
       </c>
       <c r="G2" t="n">
-        <v>246.2319094885102</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.77058992693726</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>232.6015250123486</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>200.5761292066102</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>263.0986544447663</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>121.2443095168949</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>92.46572744736827</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>149.8148509233373</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27941,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.44796087363285</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>85.63262347080878</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795084</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>197.2140931478448</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1480627106907</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,19 +37627,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1290031.574061995</v>
+        <v>1221180.277620559</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -670,19 +670,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>21.84039882228386</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,34 +858,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>23.44046883036203</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>3.892417739585678</v>
       </c>
     </row>
     <row r="5">
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>117.573888884807</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.198279447036</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>1.94867197778222</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>112.04176299373</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>120.9273370453295</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>135.4320983106454</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>84.09444280706553</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,55 +2001,55 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2089,64 +2089,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>159.2222148998135</v>
+        <v>150.252752286242</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,62 +2323,62 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>74.90170127346857</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>125.0694439441592</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>76.21368916959582</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>37.15414074677624</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,17 +2797,17 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>89.18261861851448</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,46 +2958,46 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3085,10 +3085,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="34">
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,28 +3347,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.1919908257736</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,23 +3505,23 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>131.9191607488403</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,61 +3660,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>27.59749285103753</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>45.02278574591163</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>67.46006253383348</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>168.333920706505</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
         <v>57.25840604064623</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.1943137916113</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4418,13 +4418,13 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.1943137916113</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>58.33406192680583</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>159.6294974266712</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>419.8840176262463</v>
+        <v>682.6683205171034</v>
       </c>
       <c r="C9" t="n">
-        <v>419.8840176262463</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D9" t="n">
-        <v>419.8840176262463</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E9" t="n">
-        <v>419.8840176262463</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>273.3494596531312</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>134.6186342357468</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>21.24949864332608</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>419.8840176262463</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>419.8840176262463</v>
+        <v>850.8836575371715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>243.9530410142718</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V11" t="n">
-        <v>243.9530410142718</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W11" t="n">
-        <v>243.9530410142718</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C12" t="n">
-        <v>726.0875267598396</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D12" t="n">
-        <v>577.1531170985884</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C14" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
         <v>712.019119383956</v>
@@ -5381,19 +5381,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>899.5229907989976</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
         <v>19.28114311021272</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5545,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="19">
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>602.5722756181267</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C24" t="n">
-        <v>428.1192463369997</v>
+        <v>543.7805653048071</v>
       </c>
       <c r="D24" t="n">
-        <v>279.1848366757484</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="E24" t="n">
-        <v>279.1848366757484</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>837.7243838498694</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>837.7243838498694</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>837.7243838498694</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>602.5722756181267</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>602.5722756181267</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X24" t="n">
-        <v>602.5722756181267</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y24" t="n">
-        <v>602.5722756181267</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="25">
@@ -6177,7 +6177,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.1033079837604</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6502787026334</v>
+        <v>242.7992254970609</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>926.5277204128824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>926.5277204128824</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>926.5277204128824</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>926.5277204128824</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>683.0789437687823</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X27" t="n">
-        <v>683.0789437687823</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y27" t="n">
-        <v>475.3186450038284</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6451,7 +6451,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T29" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>199.6642254030709</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N30" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N30" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5698337361135</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C36" t="n">
-        <v>166.5698337361135</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7055,13 +7055,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>334.7851707561815</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>587.3567013424552</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C39" t="n">
-        <v>587.3567013424552</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D39" t="n">
-        <v>438.4222916812039</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E39" t="n">
-        <v>279.1848366757484</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>830.8054779865552</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W39" t="n">
-        <v>587.3567013424552</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X39" t="n">
-        <v>587.3567013424552</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y39" t="n">
-        <v>587.3567013424552</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>649.1947276839472</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C42" t="n">
-        <v>474.7416984028202</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D42" t="n">
-        <v>325.807288741569</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>193.6919564884162</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>47.15739851530114</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>47.15739851530114</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,46 +7496,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y42" t="n">
-        <v>817.4100647040152</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>284.787934186969</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C45" t="n">
-        <v>110.334904905842</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D45" t="n">
-        <v>110.334904905842</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>895.9156782037337</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>660.7635699719909</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>660.7635699719909</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>660.7635699719909</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y45" t="n">
-        <v>453.003271207037</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="46">
@@ -7830,16 +7830,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>280.7634702223003</v>
@@ -8066,16 +8066,16 @@
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11144,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11159,7 +11159,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>130.418315862507</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>37.27640067767032</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>102.68284301593</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23515,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>36.26901108812093</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,10 +23873,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>167.6005403538541</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>73.57837224961182</v>
+        <v>82.54783486318325</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24256,16 +24256,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0541832853293</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>97.80679771484716</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>46.61372715967863</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,10 +24344,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24417,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>71.23137639504293</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.5290303570616</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>23.05282561798198</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,28 +25235,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>26.92171639560435</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.49070495153072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,19 +25475,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.6548951417799</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>100.881426400585</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>84.63795138545893</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25766,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>160.6599100313927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>158.4813195471413</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>37.34877507079932</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399023.7938554852</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399023.7938554852</v>
+        <v>399023.793855485</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399023.7938554853</v>
+        <v>399023.7938554852</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399023.7938554852</v>
+        <v>399023.7938554853</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399023.7938554853</v>
+        <v>399023.7938554852</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399023.7938554852</v>
+        <v>399023.793855485</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399023.7938554853</v>
+        <v>399023.7938554852</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117841</v>
-      </c>
       <c r="E2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="F2" t="n">
         <v>216008.8742907321</v>
@@ -26346,7 +26346,7 @@
         <v>216008.8742907321</v>
       </c>
       <c r="M2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="N2" t="n">
         <v>216008.874290732</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124791.5082474202</v>
+        <v>124791.5082474203</v>
       </c>
       <c r="C6" t="n">
-        <v>112224.1850426372</v>
+        <v>112224.1850426374</v>
       </c>
       <c r="D6" t="n">
-        <v>172800.5072293053</v>
+        <v>172800.5072293054</v>
       </c>
       <c r="E6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="F6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="G6" t="n">
-        <v>167705.3587427128</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="H6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="I6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="J6" t="n">
-        <v>153704.1266024334</v>
+        <v>141486.1159823929</v>
       </c>
       <c r="K6" t="n">
-        <v>119448.4058090801</v>
+        <v>107230.3951890396</v>
       </c>
       <c r="L6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="M6" t="n">
-        <v>167705.3587427126</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="N6" t="n">
-        <v>167705.3587427126</v>
+        <v>155487.3481226721</v>
       </c>
       <c r="O6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
       <c r="P6" t="n">
-        <v>167705.3587427127</v>
+        <v>155487.3481226722</v>
       </c>
     </row>
   </sheetData>
@@ -27390,19 +27390,19 @@
         <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0356469194276</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>380.1181913177838</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>35.88410384146533</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>200.5761292066102</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>214.6922356125091</v>
       </c>
     </row>
     <row r="5">
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>289.3021568569044</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.870932946347835</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>107.6671775926096</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.44796087363285</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>93.64093278357433</v>
       </c>
     </row>
     <row r="10">
@@ -28031,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>51.35040662570935</v>
@@ -34786,16 +34786,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,7 +35737,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4350751681936</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36445,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>169.9067907798017</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>43.28534947792182</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
